--- a/questionnaires/categories/years.xlsx
+++ b/questionnaires/categories/years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA3\questionnaires\categories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C6C59D-B77A-491A-8867-E5AFE9C97248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC97E93D-97E6-4D04-A813-574D2832E4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="6975" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>value</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>attachmentname</t>
+  </si>
+  <si>
+    <t>&lt; 2000</t>
   </si>
 </sst>
 </file>
@@ -127,7 +130,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +446,7 @@
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -458,194 +461,204 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1900</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2000</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>2001</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="3">
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>2002</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>2003</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B6" s="3">
         <v>2003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>2004</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>2004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>2005</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>2005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>2006</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="2">
         <v>2006</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>2007</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B10" s="3">
         <v>2007</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>2008</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>2008</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>2009</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B12" s="3">
         <v>2009</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>2010</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>2011</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B14" s="3">
         <v>2011</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>2012</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="2">
         <v>2012</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>2013</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B16" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>2014</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
         <v>2015</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>2016</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="2">
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>2017</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
         <v>2018</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>2019</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>2020</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
         <v>2021</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B24" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>2022</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B25" s="2">
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>2023</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B26" s="4">
         <v>2023</v>
       </c>
     </row>
